--- a/static/Actions at Business Park.xlsx
+++ b/static/Actions at Business Park.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fc72a73d589553e/Distribute/Distribute - SAVED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\saved-st\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{49A7115B-15EA-4A7A-88D8-6CDBE2849C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B977847-5228-40F0-9DE1-CA4098CA2396}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B674A90-7099-4554-92D7-ACA229548D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{E5930352-CFB0-428E-867C-FD4EBE93A440}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <r>
       <t xml:space="preserve">Tractor </t>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>Or temporary location if dock is occupied (if so, add action 'move' from temp to dock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Excel contains the expected actions that occur on BusinessPark Almelo from the Autonomous Vehicle perspective. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It serves as a base for extending the current model, which only includes 'move' actions. </t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6095633-0083-48AB-AED7-486096F5EA13}">
-  <dimension ref="B1:E34"/>
+  <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -720,368 +722,378 @@
     <col min="6" max="6" width="33.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="2" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="3" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="6" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="7">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="12">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="12">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="7">
         <v>5</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="8">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="8">
         <v>6</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="9" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="10">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="11">
-        <v>3</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="11">
-        <v>6</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11">
+        <v>3</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="10">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="10">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="11">
+        <v>6</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="11">
         <v>7</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>51</v>
       </c>
     </row>
